--- a/data/SampleV.01/Libal_Config_IT_SampleV.01.xlsx
+++ b/data/SampleV.01/Libal_Config_IT_SampleV.01.xlsx
@@ -28,10 +28,10 @@
     <t>Pset</t>
   </si>
   <si>
-    <t>AttributName</t>
-  </si>
-  <si>
-    <t>AttributDescriptionIT</t>
+    <t>AttributeName</t>
+  </si>
+  <si>
+    <t>AttributeDescriptionIT</t>
   </si>
   <si>
     <t>DataTyp</t>
@@ -112,13 +112,13 @@
     <t>LongName</t>
   </si>
   <si>
+    <t>PredefinedType</t>
+  </si>
+  <si>
+    <t>IsInteriorOrExteriorSpace</t>
+  </si>
+  <si>
     <t>IsExternal</t>
-  </si>
-  <si>
-    <t>PredefinedType</t>
-  </si>
-  <si>
-    <t>IsInteriorOrExteriorSpace</t>
   </si>
   <si>
     <t>X</t>
@@ -517,16 +517,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="4" width="20.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="45.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="20.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" style="1" customWidth="1"/>
     <col min="12" max="22" width="8.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -916,6 +911,9 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
@@ -954,9 +952,6 @@
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1034,10 +1029,10 @@
         <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>34</v>
@@ -1084,10 +1079,10 @@
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>34</v>
@@ -1134,10 +1129,10 @@
         <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
@@ -1184,10 +1179,10 @@
         <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
@@ -1434,10 +1429,10 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>34</v>
